--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prologic\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D961C22E-C803-46FE-A8E8-73409610287B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6778C8EF-5837-462F-8771-19C7224E3294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="2370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>ChainID</t>
   </si>
@@ -154,205 +154,10 @@
     <t>73532</t>
   </si>
   <si>
-    <t>73625</t>
-  </si>
-  <si>
-    <t>73626</t>
-  </si>
-  <si>
-    <t>73630</t>
-  </si>
-  <si>
-    <t>73631</t>
-  </si>
-  <si>
-    <t>73633</t>
-  </si>
-  <si>
-    <t>73635</t>
-  </si>
-  <si>
-    <t>73637</t>
-  </si>
-  <si>
-    <t>73638</t>
-  </si>
-  <si>
-    <t>73640</t>
-  </si>
-  <si>
-    <t>73642</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>73643</t>
-  </si>
-  <si>
-    <t>73644</t>
-  </si>
-  <si>
-    <t>73744</t>
-  </si>
-  <si>
-    <t>73746</t>
-  </si>
-  <si>
-    <t>73747</t>
-  </si>
-  <si>
-    <t>73748</t>
-  </si>
-  <si>
-    <t>73749</t>
-  </si>
-  <si>
-    <t>73750</t>
-  </si>
-  <si>
-    <t>73751</t>
-  </si>
-  <si>
-    <t>73752</t>
-  </si>
-  <si>
-    <t>73753</t>
-  </si>
-  <si>
-    <t>73754</t>
-  </si>
-  <si>
-    <t>73755</t>
-  </si>
-  <si>
-    <t>73756</t>
-  </si>
-  <si>
-    <t>73757</t>
-  </si>
-  <si>
-    <t>73758</t>
-  </si>
-  <si>
-    <t>73759</t>
-  </si>
-  <si>
-    <t>73760</t>
-  </si>
-  <si>
-    <t>73761</t>
-  </si>
-  <si>
-    <t>73762</t>
-  </si>
-  <si>
-    <t>73763</t>
-  </si>
-  <si>
-    <t>73764</t>
-  </si>
-  <si>
-    <t>73765</t>
-  </si>
-  <si>
-    <t>73766</t>
-  </si>
-  <si>
-    <t>73767</t>
-  </si>
-  <si>
-    <t>73768</t>
-  </si>
-  <si>
-    <t>73769</t>
-  </si>
-  <si>
-    <t>73770</t>
-  </si>
-  <si>
-    <t>73771</t>
-  </si>
-  <si>
-    <t>73772</t>
-  </si>
-  <si>
-    <t>73774</t>
-  </si>
-  <si>
-    <t>73775</t>
-  </si>
-  <si>
-    <t>73776</t>
-  </si>
-  <si>
-    <t>73777</t>
-  </si>
-  <si>
-    <t>73778</t>
-  </si>
-  <si>
-    <t>73779</t>
-  </si>
-  <si>
-    <t>73780</t>
-  </si>
-  <si>
-    <t>73781</t>
-  </si>
-  <si>
-    <t>73782</t>
-  </si>
-  <si>
-    <t>73783</t>
-  </si>
-  <si>
-    <t>73784</t>
-  </si>
-  <si>
-    <t>73785</t>
-  </si>
-  <si>
-    <t>73786</t>
-  </si>
-  <si>
-    <t>73787</t>
-  </si>
-  <si>
-    <t>73788</t>
-  </si>
-  <si>
-    <t>73789</t>
-  </si>
-  <si>
-    <t>73790</t>
-  </si>
-  <si>
-    <t>73791</t>
-  </si>
-  <si>
-    <t>73792</t>
-  </si>
-  <si>
-    <t>73794</t>
-  </si>
-  <si>
-    <t>73795</t>
-  </si>
-  <si>
-    <t>73796</t>
-  </si>
-  <si>
-    <t>73797</t>
-  </si>
-  <si>
-    <t>73798</t>
-  </si>
-  <si>
-    <t>73799</t>
-  </si>
-  <si>
-    <t>73800</t>
+    <t>73805</t>
+  </si>
+  <si>
+    <t>73808</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +965,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="A20:B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -1215,571 +1020,19 @@
     <row r="6" spans="1:2">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>102</v>
-      </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>107</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>109</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Project\WebProLiFiC 3.O\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5912274-DB3D-4662-A74D-016F76E35B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8FECB-F1B8-429B-8CD0-523998D0356C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,19 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="151">
   <si>
     <t>ChainID</t>
   </si>
@@ -844,7 +855,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -979,10 +990,18 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
@@ -1236,7 +1255,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1393,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1493,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Project\WebProLiFiC 3.O\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8FECB-F1B8-429B-8CD0-523998D0356C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282501C1-0DCD-4D04-AD32-2711B368531F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="154">
   <si>
     <t>ChainID</t>
   </si>
@@ -493,6 +493,15 @@
   </si>
   <si>
     <t>104334</t>
+  </si>
+  <si>
+    <t>100547</t>
+  </si>
+  <si>
+    <t>100548</t>
+  </si>
+  <si>
+    <t>IHG</t>
   </si>
 </sst>
 </file>
@@ -854,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -931,10 +940,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1510,9 +1519,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2116,6 +2125,22 @@
         <v>150</v>
       </c>
       <c r="B75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
         <v>101</v>
       </c>
     </row>
